--- a/data/input/employee_absence_data_38.xlsx
+++ b/data/input/employee_absence_data_38.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18492</v>
+        <v>73254</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephany Aparecida</t>
+          <t>Felipe Marques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,80 +482,80 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>7149.21</v>
+        <v>8754.459999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17231</v>
+        <v>27711</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mathias Câmara</t>
+          <t>Srta. Rafaela Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>8150.34</v>
+        <v>3431.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13241</v>
+        <v>15566</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pedro Miguel Rodrigues</t>
+          <t>Clarice Novais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>2847.85</v>
+        <v>9548.889999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12929</v>
+        <v>25354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camila das Neves</t>
+          <t>Dr. Benício Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,26 +565,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>10523.88</v>
+        <v>7593.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13418</v>
+        <v>49242</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Aurora Souza</t>
+          <t>Miguel Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,55 +594,55 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>11737.26</v>
+        <v>4536.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3014</v>
+        <v>50111</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carolina Peixoto</t>
+          <t>Sarah Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>4634.22</v>
+        <v>7967.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9154</v>
+        <v>15166</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alexandre Pacheco</t>
+          <t>Larissa Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,60 +652,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>4007.96</v>
+        <v>6927.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87034</v>
+        <v>2208</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Castro</t>
+          <t>Bella Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45093</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>9611.16</v>
+        <v>5044.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34227</v>
+        <v>62820</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Correia</t>
+          <t>Eduarda Câmara</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>11427.6</v>
+        <v>9375.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14481</v>
+        <v>63170</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kamilly Almeida</t>
+          <t>Dra. Ana Cecília Albuquerque</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>5212.99</v>
+        <v>5628.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_38.xlsx
+++ b/data/input/employee_absence_data_38.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73254</v>
+        <v>31589</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Felipe Marques</t>
+          <t>Pietro Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>8754.459999999999</v>
+        <v>8979.370000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27711</v>
+        <v>61665</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Rafaela Ramos</t>
+          <t>Maria Luísa Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>3431.49</v>
+        <v>9493.059999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15566</v>
+        <v>13186</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clarice Novais</t>
+          <t>Maria Helena Leão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,56 +540,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45086</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>9548.889999999999</v>
+        <v>2774.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25354</v>
+        <v>7260</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Benício Dias</t>
+          <t>Heitor Moura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>7593.38</v>
+        <v>6013.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49242</v>
+        <v>60168</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miguel Souza</t>
+          <t>Maria Helena Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,51 +598,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>4536.76</v>
+        <v>3533.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50111</v>
+        <v>37126</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Alves</t>
+          <t>Sra. Natália Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>7967.36</v>
+        <v>2675.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15166</v>
+        <v>45884</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Larissa Nogueira</t>
+          <t>Ágatha Castro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,104 +652,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>6927.9</v>
+        <v>6473.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2208</v>
+        <v>29526</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bella Pinto</t>
+          <t>Marina Cirino</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>5044.21</v>
+        <v>4812.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62820</v>
+        <v>73212</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eduarda Câmara</t>
+          <t>Davi Lucca Abreu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>9375.73</v>
+        <v>2803.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63170</v>
+        <v>96458</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Ana Cecília Albuquerque</t>
+          <t>Isabella Correia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45088</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>5628.34</v>
+        <v>3407.57</v>
       </c>
     </row>
   </sheetData>
